--- a/excel/ziguang/exportedExcelZiguang.xlsx
+++ b/excel/ziguang/exportedExcelZiguang.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q.ou\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyan\Desktop\NBgupiao\stockapp\excel\ziguang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF23BC17-414E-4BCA-8619-506885D44021}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD79297-51AD-46D1-8124-1170E545EA17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91A5C660-74BE-40EE-AF9A-0A5C99A253F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91A5C660-74BE-40EE-AF9A-0A5C99A253F9}"/>
   </bookViews>
   <sheets>
     <sheet name="exportedData" sheetId="1" r:id="rId1"/>
